--- a/Proyecto/Limpiado de datos y toma de decisiones/XLSX/columnsDescription.xlsx
+++ b/Proyecto/Limpiado de datos y toma de decisiones/XLSX/columnsDescription.xlsx
@@ -8,19 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mentxaka/Documents/Universidad De Deusto/2021-22/1er Semestre/Big Data y Business Intelligence/Proyecto/Limpiado de datos y toma de decisiones/XLSX/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB539E23-14DD-E84B-B6CF-A6C599B85B2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8CE60D0-B28D-4546-A44A-A45327A9F461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18640" yWindow="500" windowWidth="10160" windowHeight="15900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="columns_description" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="168">
   <si>
     <t>Table</t>
   </si>
@@ -518,6 +529,12 @@
   </si>
   <si>
     <t>ANTERIOR, PARECE INTERESANTE PERO HAY MUCHAS COLUMNAS DE ESTUDIO, SE VERA SI SE UTILIZA</t>
+  </si>
+  <si>
+    <t>AMT_CREDIT_YEARS</t>
+  </si>
+  <si>
+    <t>Years to pay the loan</t>
   </si>
 </sst>
 </file>
@@ -1385,10 +1402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F82"/>
+  <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1507,743 +1524,740 @@
         <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>20</v>
+        <v>166</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>21</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
+        <v>17</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
         <v>18</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="B16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
+    <row r="17" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
         <v>19</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="1" t="s">
+      <c r="B17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
+    <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
         <v>20</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="1" t="s">
+      <c r="B18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>21</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
+        <v>32</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
         <v>33</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" s="1" t="s">
+      <c r="B30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
-        <v>35</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
+        <v>35</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
         <v>36</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31" s="1" t="s">
+      <c r="B32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="4">
+    <row r="33" spans="1:6" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="4">
         <v>43</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C32" s="4" t="s">
+      <c r="B33" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D33" s="4" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A33" s="4">
-        <v>94</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
+        <v>96</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A37" s="4">
         <v>97</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C36" s="4" t="s">
+      <c r="B37" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D37" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
+    <row r="38" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
         <v>98</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C37" s="1" t="s">
+      <c r="B38" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
+    <row r="39" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
         <v>119</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C38" s="1" t="s">
+      <c r="B39" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="39" spans="1:6" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A39" s="4">
+    <row r="40" spans="1:6" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A40" s="4">
         <v>120</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C39" s="4" t="s">
+      <c r="B40" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D40" s="4" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" s="5" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A40" s="5">
-        <v>121</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="41" spans="1:6" s="5" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="42" spans="1:6" s="5" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
+        <v>122</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" s="5" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A43" s="5">
         <v>123</v>
       </c>
-      <c r="B42" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C42" s="5" t="s">
+      <c r="B43" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D43" s="5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A43" s="1">
+    <row r="44" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
         <v>124</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C43" s="1" t="s">
+      <c r="B44" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="44" spans="1:6" s="2" customFormat="1" ht="51" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="2">
+    <row r="45" spans="1:6" s="2" customFormat="1" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="2">
         <v>176</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C44" s="2" t="s">
+      <c r="B45" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D45" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="2">
-        <v>177</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>165</v>
-      </c>
     </row>
     <row r="46" spans="1:6" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>100</v>
+        <v>6</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="47" spans="1:6" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48" spans="1:6" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
+        <v>179</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="2">
         <v>180</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C48" s="2" t="s">
+      <c r="B49" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D49" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="49" spans="1:5" s="2" customFormat="1" ht="68" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="2">
+    <row r="50" spans="1:5" s="2" customFormat="1" ht="68" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="2">
         <v>181</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C49" s="2" t="s">
+      <c r="B50" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="D50" s="2" t="s">
         <v>104</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="2">
-        <v>182</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="51" spans="1:5" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>24</v>
+        <v>105</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="52" spans="1:5" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="53" spans="1:5" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
+        <v>184</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="2">
         <v>185</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C53" s="2" t="s">
+      <c r="B54" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="D54" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E53" s="2" t="s">
+      <c r="E54" s="2" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" s="2" customFormat="1" ht="51" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="2">
-        <v>186</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="55" spans="1:5" s="2" customFormat="1" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
+        <v>186</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" s="2" customFormat="1" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="2">
         <v>187</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C55" s="2" t="s">
+      <c r="B56" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="D56" s="2" t="s">
         <v>113</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="2">
-        <v>188</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="57" spans="1:5" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>73</v>
+        <v>115</v>
       </c>
     </row>
     <row r="58" spans="1:5" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>73</v>
@@ -2251,13 +2265,13 @@
     </row>
     <row r="59" spans="1:5" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>119</v>
@@ -2268,263 +2282,263 @@
     </row>
     <row r="60" spans="1:5" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:5" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="62" spans="1:5" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>41</v>
+        <v>124</v>
       </c>
     </row>
     <row r="63" spans="1:5" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="64" spans="1:5" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="65" spans="1:5" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>26</v>
+        <v>129</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="66" spans="1:5" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>132</v>
+        <v>26</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="67" spans="1:5" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="68" spans="1:5" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="69" spans="1:5" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="70" spans="1:5" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="71" spans="1:5" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="72" spans="1:5" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="73" spans="1:5" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="74" spans="1:5" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="75" spans="1:5" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="76" spans="1:5" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>41</v>
+        <v>152</v>
       </c>
     </row>
     <row r="77" spans="1:5" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>41</v>
@@ -2532,16 +2546,16 @@
     </row>
     <row r="78" spans="1:5" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>41</v>
@@ -2549,16 +2563,16 @@
     </row>
     <row r="79" spans="1:5" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>41</v>
@@ -2566,36 +2580,53 @@
     </row>
     <row r="80" spans="1:5" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="81" spans="1:4" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
+        <v>212</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="2">
         <v>213</v>
       </c>
-      <c r="B81" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C81" s="2" t="s">
+      <c r="B82" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C82" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="D81" s="2" t="s">
+      <c r="D82" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
